--- a/ITI/BALP/StructureDefinition-IHE.BasicAudit.AuthZconsent.xlsx
+++ b/ITI/BALP/StructureDefinition-IHE.BasicAudit.AuthZconsent.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:16:52-05:00</t>
+    <t>2022-10-21T09:04:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -298,10 +298,6 @@
     <t>Based on IHE-ATNA.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -320,7 +316,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -673,6 +669,10 @@
   </si>
   <si>
     <t>AuditEvent.outcomeDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Description of the event outcome</t>
@@ -2239,14 +2239,14 @@
     <col min="1" max="1" width="41.4609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.73828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.7421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2255,28 +2255,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.65234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.65625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="62.97265625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="62.9765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="155.37890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="49.38671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="49.390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="34.4140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="40.00390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2500,16 +2500,16 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2534,28 +2534,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2605,13 +2605,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2651,25 +2651,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2720,19 +2720,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2766,28 +2766,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2837,19 +2837,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2872,7 +2872,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2883,7 +2883,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2895,16 +2895,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2930,43 +2930,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2989,18 +2989,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -3012,16 +3012,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3071,25 +3071,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -3106,11 +3106,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3129,16 +3129,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3188,7 +3188,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -3206,7 +3206,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -3223,11 +3223,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3246,16 +3246,16 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3305,7 +3305,7 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3317,13 +3317,13 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>78</v>
@@ -3340,7 +3340,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3357,19 +3357,19 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3420,7 +3420,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3432,7 +3432,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3463,32 +3463,32 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3498,73 +3498,73 @@
         <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W11" t="s" s="2">
+      <c r="X11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3592,20 +3592,20 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -3630,11 +3630,11 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>78</v>
@@ -3652,7 +3652,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3664,19 +3664,19 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3698,29 +3698,29 @@
         <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
@@ -3730,70 +3730,70 @@
         <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="X13" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="S13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="X13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AM13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3815,7 +3815,7 @@
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -3827,16 +3827,16 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3886,42 +3886,42 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3929,34 +3929,34 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
@@ -4005,42 +4005,42 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AL15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>194</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4048,31 +4048,31 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4098,55 +4098,55 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AL16" t="s" s="2">
-        <v>201</v>
-      </c>
       <c r="AM16" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4168,19 +4168,19 @@
         <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>203</v>
@@ -4237,19 +4237,19 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>78</v>
@@ -4261,7 +4261,7 @@
         <v>206</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4286,13 +4286,13 @@
         <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>208</v>
@@ -4330,7 +4330,7 @@
         <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X18" t="s" s="2">
         <v>212</v>
@@ -4366,7 +4366,7 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>214</v>
@@ -4476,7 +4476,7 @@
         <v>220</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4485,7 +4485,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>231</v>
@@ -4519,7 +4519,7 @@
         <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>78</v>
@@ -4531,7 +4531,7 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>238</v>
@@ -4594,7 +4594,7 @@
         <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>78</v>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4646,16 +4646,16 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4717,7 +4717,7 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>78</v>
@@ -4757,13 +4757,13 @@
         <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>247</v>
@@ -4772,7 +4772,7 @@
         <v>248</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>249</v>
@@ -4836,13 +4836,13 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>78</v>
@@ -4870,7 +4870,7 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -4915,7 +4915,7 @@
         <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X23" t="s" s="2">
         <v>254</v>
@@ -4945,13 +4945,13 @@
         <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>256</v>
@@ -5070,7 +5070,7 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>78</v>
@@ -5104,16 +5104,16 @@
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>273</v>
@@ -5183,13 +5183,13 @@
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>278</v>
@@ -5223,7 +5223,7 @@
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>78</v>
@@ -5235,7 +5235,7 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>284</v>
@@ -5300,13 +5300,13 @@
         <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>78</v>
@@ -5340,7 +5340,7 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
@@ -5352,7 +5352,7 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>290</v>
@@ -5417,13 +5417,13 @@
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>78</v>
@@ -5454,19 +5454,19 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>296</v>
@@ -5533,16 +5533,16 @@
         <v>295</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>78</v>
@@ -5576,7 +5576,7 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
@@ -5651,13 +5651,13 @@
         <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>307</v>
@@ -5703,7 +5703,7 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>313</v>
@@ -5776,7 +5776,7 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>78</v>
@@ -5810,7 +5810,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -5822,7 +5822,7 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>321</v>
@@ -5857,7 +5857,7 @@
         <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X31" t="s" s="2">
         <v>324</v>
@@ -5887,13 +5887,13 @@
         <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>78</v>
@@ -5927,7 +5927,7 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -6002,13 +6002,13 @@
         <v>79</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -6042,7 +6042,7 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -6054,7 +6054,7 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>238</v>
@@ -6117,7 +6117,7 @@
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
@@ -6150,7 +6150,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -6169,16 +6169,16 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6240,7 +6240,7 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
@@ -6280,13 +6280,13 @@
         <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>247</v>
@@ -6295,7 +6295,7 @@
         <v>248</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>249</v>
@@ -6359,13 +6359,13 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>78</v>
@@ -6393,7 +6393,7 @@
         <v>79</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>78</v>
@@ -6405,7 +6405,7 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>336</v>
@@ -6472,13 +6472,13 @@
         <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
@@ -6512,7 +6512,7 @@
         <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>78</v>
@@ -6524,7 +6524,7 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>344</v>
@@ -6559,7 +6559,7 @@
         <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X37" t="s" s="2">
         <v>347</v>
@@ -6589,13 +6589,13 @@
         <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>78</v>
@@ -6676,7 +6676,7 @@
         <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X38" t="s" s="2">
         <v>212</v>
@@ -6712,7 +6712,7 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
@@ -6745,10 +6745,10 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6824,7 +6824,7 @@
         <v>220</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6833,7 +6833,7 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>231</v>
@@ -6867,7 +6867,7 @@
         <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6879,7 +6879,7 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>238</v>
@@ -6942,7 +6942,7 @@
         <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6994,16 +6994,16 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -7065,7 +7065,7 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>78</v>
@@ -7105,13 +7105,13 @@
         <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>247</v>
@@ -7120,7 +7120,7 @@
         <v>248</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>249</v>
@@ -7184,13 +7184,13 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>78</v>
@@ -7215,10 +7215,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>78</v>
@@ -7263,7 +7263,7 @@
         <v>78</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X43" t="s" s="2">
         <v>254</v>
@@ -7293,13 +7293,13 @@
         <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>256</v>
@@ -7418,7 +7418,7 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>78</v>
@@ -7449,19 +7449,19 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>273</v>
@@ -7531,13 +7531,13 @@
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>278</v>
@@ -7583,7 +7583,7 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>284</v>
@@ -7648,13 +7648,13 @@
         <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
@@ -7700,7 +7700,7 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>290</v>
@@ -7765,13 +7765,13 @@
         <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
@@ -7802,19 +7802,19 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>296</v>
@@ -7881,16 +7881,16 @@
         <v>295</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
@@ -7999,13 +7999,13 @@
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>307</v>
@@ -8042,7 +8042,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -8051,7 +8051,7 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>313</v>
@@ -8124,7 +8124,7 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>78</v>
@@ -8170,7 +8170,7 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>321</v>
@@ -8205,7 +8205,7 @@
         <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X51" t="s" s="2">
         <v>324</v>
@@ -8235,13 +8235,13 @@
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
@@ -8272,10 +8272,10 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>78</v>
@@ -8350,13 +8350,13 @@
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
@@ -8390,7 +8390,7 @@
         <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>78</v>
@@ -8402,7 +8402,7 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>238</v>
@@ -8465,7 +8465,7 @@
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
@@ -8498,7 +8498,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8517,16 +8517,16 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8588,7 +8588,7 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>78</v>
@@ -8628,13 +8628,13 @@
         <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>247</v>
@@ -8643,7 +8643,7 @@
         <v>248</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>249</v>
@@ -8707,13 +8707,13 @@
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
@@ -8741,7 +8741,7 @@
         <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>78</v>
@@ -8753,7 +8753,7 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>336</v>
@@ -8820,13 +8820,13 @@
         <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
@@ -8860,7 +8860,7 @@
         <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>78</v>
@@ -8872,7 +8872,7 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>344</v>
@@ -8907,7 +8907,7 @@
         <v>78</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X57" t="s" s="2">
         <v>347</v>
@@ -8937,13 +8937,13 @@
         <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
@@ -9024,7 +9024,7 @@
         <v>78</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X58" t="s" s="2">
         <v>212</v>
@@ -9060,7 +9060,7 @@
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
@@ -9093,10 +9093,10 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>78</v>
@@ -9172,7 +9172,7 @@
         <v>220</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9181,7 +9181,7 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>231</v>
@@ -9215,7 +9215,7 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
@@ -9227,7 +9227,7 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>238</v>
@@ -9290,7 +9290,7 @@
         <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>78</v>
@@ -9323,7 +9323,7 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -9342,16 +9342,16 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -9413,7 +9413,7 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>78</v>
@@ -9453,13 +9453,13 @@
         <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>247</v>
@@ -9468,7 +9468,7 @@
         <v>248</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>249</v>
@@ -9532,13 +9532,13 @@
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>78</v>
@@ -9563,10 +9563,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>78</v>
@@ -9611,7 +9611,7 @@
         <v>78</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X63" t="s" s="2">
         <v>254</v>
@@ -9641,13 +9641,13 @@
         <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>256</v>
@@ -9684,7 +9684,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>78</v>
@@ -9766,7 +9766,7 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>78</v>
@@ -9797,19 +9797,19 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>273</v>
@@ -9879,13 +9879,13 @@
         <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>278</v>
@@ -9931,7 +9931,7 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>284</v>
@@ -9996,13 +9996,13 @@
         <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>78</v>
@@ -10036,11 +10036,11 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G67" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G67" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H67" t="s" s="2">
         <v>78</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>290</v>
@@ -10113,13 +10113,13 @@
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>78</v>
@@ -10150,19 +10150,19 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I68" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>296</v>
@@ -10229,16 +10229,16 @@
         <v>295</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
@@ -10347,13 +10347,13 @@
         <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>307</v>
@@ -10390,7 +10390,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
@@ -10399,7 +10399,7 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>313</v>
@@ -10472,7 +10472,7 @@
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>78</v>
@@ -10518,7 +10518,7 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>321</v>
@@ -10553,7 +10553,7 @@
         <v>78</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X71" t="s" s="2">
         <v>324</v>
@@ -10583,13 +10583,13 @@
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>78</v>
@@ -10698,13 +10698,13 @@
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>78</v>
@@ -10738,7 +10738,7 @@
         <v>79</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>78</v>
@@ -10750,7 +10750,7 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>238</v>
@@ -10813,7 +10813,7 @@
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>78</v>
@@ -10846,7 +10846,7 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10865,16 +10865,16 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -10936,7 +10936,7 @@
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>78</v>
@@ -10976,13 +10976,13 @@
         <v>78</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>247</v>
@@ -10991,7 +10991,7 @@
         <v>248</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>249</v>
@@ -11055,13 +11055,13 @@
         <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
@@ -11089,7 +11089,7 @@
         <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>78</v>
@@ -11101,7 +11101,7 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>336</v>
@@ -11168,13 +11168,13 @@
         <v>79</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>78</v>
@@ -11208,7 +11208,7 @@
         <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>78</v>
@@ -11220,7 +11220,7 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>344</v>
@@ -11255,7 +11255,7 @@
         <v>78</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X77" t="s" s="2">
         <v>347</v>
@@ -11285,13 +11285,13 @@
         <v>79</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>78</v>
@@ -11328,7 +11328,7 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -11372,7 +11372,7 @@
         <v>78</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X78" t="s" s="2">
         <v>212</v>
@@ -11408,7 +11408,7 @@
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>78</v>
@@ -11441,10 +11441,10 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>78</v>
@@ -11520,7 +11520,7 @@
         <v>220</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11529,7 +11529,7 @@
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>231</v>
@@ -11563,7 +11563,7 @@
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>78</v>
@@ -11575,7 +11575,7 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K80" t="s" s="2">
         <v>238</v>
@@ -11638,7 +11638,7 @@
         <v>79</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>78</v>
@@ -11671,7 +11671,7 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11690,16 +11690,16 @@
         <v>78</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -11761,7 +11761,7 @@
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>78</v>
@@ -11801,13 +11801,13 @@
         <v>78</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>247</v>
@@ -11816,7 +11816,7 @@
         <v>248</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N82" t="s" s="2">
         <v>249</v>
@@ -11880,13 +11880,13 @@
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
@@ -11911,10 +11911,10 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>78</v>
@@ -11959,7 +11959,7 @@
         <v>78</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X83" t="s" s="2">
         <v>254</v>
@@ -11989,13 +11989,13 @@
         <v>79</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>256</v>
@@ -12114,7 +12114,7 @@
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>78</v>
@@ -12145,19 +12145,19 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G85" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="H85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>273</v>
@@ -12227,13 +12227,13 @@
         <v>79</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>278</v>
@@ -12279,7 +12279,7 @@
         <v>78</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>284</v>
@@ -12344,13 +12344,13 @@
         <v>79</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>78</v>
@@ -12396,7 +12396,7 @@
         <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>290</v>
@@ -12461,13 +12461,13 @@
         <v>79</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>78</v>
@@ -12498,19 +12498,19 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I88" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>296</v>
@@ -12577,16 +12577,16 @@
         <v>295</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>78</v>
@@ -12695,13 +12695,13 @@
         <v>79</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>307</v>
@@ -12747,7 +12747,7 @@
         <v>78</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>313</v>
@@ -12820,7 +12820,7 @@
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>78</v>
@@ -12866,7 +12866,7 @@
         <v>78</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>321</v>
@@ -12901,7 +12901,7 @@
         <v>78</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X91" t="s" s="2">
         <v>324</v>
@@ -12931,13 +12931,13 @@
         <v>79</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>78</v>
@@ -13046,13 +13046,13 @@
         <v>79</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>78</v>
@@ -13086,7 +13086,7 @@
         <v>79</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>78</v>
@@ -13098,7 +13098,7 @@
         <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>238</v>
@@ -13161,7 +13161,7 @@
         <v>79</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>78</v>
@@ -13194,7 +13194,7 @@
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -13213,16 +13213,16 @@
         <v>78</v>
       </c>
       <c r="J94" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K94" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13284,7 +13284,7 @@
         <v>78</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>78</v>
@@ -13324,13 +13324,13 @@
         <v>78</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>247</v>
@@ -13339,7 +13339,7 @@
         <v>248</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>249</v>
@@ -13403,13 +13403,13 @@
         <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>78</v>
@@ -13437,7 +13437,7 @@
         <v>79</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>78</v>
@@ -13449,7 +13449,7 @@
         <v>78</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K96" t="s" s="2">
         <v>336</v>
@@ -13516,13 +13516,13 @@
         <v>79</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>78</v>
@@ -13556,7 +13556,7 @@
         <v>79</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>78</v>
@@ -13568,7 +13568,7 @@
         <v>78</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>344</v>
@@ -13603,7 +13603,7 @@
         <v>78</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X97" t="s" s="2">
         <v>347</v>
@@ -13633,13 +13633,13 @@
         <v>79</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>78</v>
@@ -13676,7 +13676,7 @@
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>78</v>
@@ -13720,7 +13720,7 @@
         <v>78</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X98" t="s" s="2">
         <v>212</v>
@@ -13756,7 +13756,7 @@
         <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>78</v>
@@ -13789,10 +13789,10 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>78</v>
@@ -13868,7 +13868,7 @@
         <v>220</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -13911,7 +13911,7 @@
         <v>79</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>78</v>
@@ -13923,7 +13923,7 @@
         <v>78</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K100" t="s" s="2">
         <v>238</v>
@@ -13986,7 +13986,7 @@
         <v>79</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>78</v>
@@ -14019,7 +14019,7 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -14038,16 +14038,16 @@
         <v>78</v>
       </c>
       <c r="J101" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K101" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L101" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14109,7 +14109,7 @@
         <v>78</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>78</v>
@@ -14149,13 +14149,13 @@
         <v>78</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>247</v>
@@ -14164,7 +14164,7 @@
         <v>248</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>249</v>
@@ -14228,13 +14228,13 @@
         <v>78</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>78</v>
@@ -14259,10 +14259,10 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>78</v>
@@ -14307,7 +14307,7 @@
         <v>78</v>
       </c>
       <c r="W103" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X103" t="s" s="2">
         <v>254</v>
@@ -14337,13 +14337,13 @@
         <v>79</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>256</v>
@@ -14462,7 +14462,7 @@
         <v>78</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>78</v>
@@ -14493,19 +14493,19 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I105" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>273</v>
@@ -14575,13 +14575,13 @@
         <v>79</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>278</v>
@@ -14627,7 +14627,7 @@
         <v>78</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K106" t="s" s="2">
         <v>284</v>
@@ -14692,13 +14692,13 @@
         <v>79</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>78</v>
@@ -14744,7 +14744,7 @@
         <v>78</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>290</v>
@@ -14809,13 +14809,13 @@
         <v>79</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>78</v>
@@ -14846,19 +14846,19 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F108" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I108" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J108" t="s" s="2">
         <v>296</v>
@@ -14925,16 +14925,16 @@
         <v>295</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH108" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>78</v>
@@ -15043,13 +15043,13 @@
         <v>79</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>307</v>
@@ -15095,7 +15095,7 @@
         <v>78</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K110" t="s" s="2">
         <v>313</v>
@@ -15168,7 +15168,7 @@
         <v>78</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>78</v>
@@ -15214,7 +15214,7 @@
         <v>78</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>321</v>
@@ -15249,7 +15249,7 @@
         <v>78</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X111" t="s" s="2">
         <v>324</v>
@@ -15279,13 +15279,13 @@
         <v>79</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>78</v>
@@ -15394,13 +15394,13 @@
         <v>79</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>78</v>
@@ -15434,7 +15434,7 @@
         <v>79</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>78</v>
@@ -15446,7 +15446,7 @@
         <v>78</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>238</v>
@@ -15509,7 +15509,7 @@
         <v>79</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>78</v>
@@ -15542,7 +15542,7 @@
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -15561,16 +15561,16 @@
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K114" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L114" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -15632,7 +15632,7 @@
         <v>78</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>78</v>
@@ -15672,13 +15672,13 @@
         <v>78</v>
       </c>
       <c r="H115" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>247</v>
@@ -15687,7 +15687,7 @@
         <v>248</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N115" t="s" s="2">
         <v>249</v>
@@ -15751,13 +15751,13 @@
         <v>78</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>78</v>
@@ -15785,7 +15785,7 @@
         <v>79</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G116" t="s" s="2">
         <v>78</v>
@@ -15797,7 +15797,7 @@
         <v>78</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>336</v>
@@ -15864,13 +15864,13 @@
         <v>79</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH116" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>78</v>
@@ -15904,7 +15904,7 @@
         <v>79</v>
       </c>
       <c r="F117" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G117" t="s" s="2">
         <v>78</v>
@@ -15916,7 +15916,7 @@
         <v>78</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>344</v>
@@ -15951,7 +15951,7 @@
         <v>78</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X117" t="s" s="2">
         <v>347</v>
@@ -15981,13 +15981,13 @@
         <v>79</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>78</v>
@@ -16068,7 +16068,7 @@
         <v>78</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X118" t="s" s="2">
         <v>212</v>
@@ -16104,7 +16104,7 @@
         <v>78</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>78</v>
@@ -16135,10 +16135,10 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>78</v>
@@ -16214,16 +16214,16 @@
         <v>366</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>78</v>
@@ -16257,7 +16257,7 @@
         <v>79</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>78</v>
@@ -16269,7 +16269,7 @@
         <v>78</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K120" t="s" s="2">
         <v>238</v>
@@ -16332,7 +16332,7 @@
         <v>79</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>78</v>
@@ -16365,7 +16365,7 @@
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -16384,16 +16384,16 @@
         <v>78</v>
       </c>
       <c r="J121" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K121" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L121" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -16455,7 +16455,7 @@
         <v>78</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>78</v>
@@ -16495,13 +16495,13 @@
         <v>78</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K122" t="s" s="2">
         <v>247</v>
@@ -16510,7 +16510,7 @@
         <v>248</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N122" t="s" s="2">
         <v>249</v>
@@ -16574,13 +16574,13 @@
         <v>78</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>78</v>
@@ -16608,7 +16608,7 @@
         <v>79</v>
       </c>
       <c r="F123" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G123" t="s" s="2">
         <v>78</v>
@@ -16620,7 +16620,7 @@
         <v>78</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>378</v>
@@ -16685,13 +16685,13 @@
         <v>79</v>
       </c>
       <c r="AG123" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>78</v>
@@ -16722,19 +16722,19 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F124" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I124" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F124" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J124" t="s" s="2">
         <v>273</v>
@@ -16799,16 +16799,16 @@
         <v>383</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>78</v>
@@ -16854,7 +16854,7 @@
         <v>78</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K125" t="s" s="2">
         <v>390</v>
@@ -16889,7 +16889,7 @@
         <v>78</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X125" t="s" s="2">
         <v>393</v>
@@ -16925,7 +16925,7 @@
         <v>78</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>78</v>
@@ -17056,7 +17056,7 @@
         <v>408</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>409</v>
@@ -17078,7 +17078,7 @@
         <v>79</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>78</v>
@@ -17090,7 +17090,7 @@
         <v>78</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K127" t="s" s="2">
         <v>238</v>
@@ -17153,7 +17153,7 @@
         <v>79</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>78</v>
@@ -17186,7 +17186,7 @@
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -17205,16 +17205,16 @@
         <v>78</v>
       </c>
       <c r="J128" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K128" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L128" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17276,7 +17276,7 @@
         <v>78</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>78</v>
@@ -17316,13 +17316,13 @@
         <v>78</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K129" t="s" s="2">
         <v>247</v>
@@ -17331,7 +17331,7 @@
         <v>248</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N129" t="s" s="2">
         <v>249</v>
@@ -17395,13 +17395,13 @@
         <v>78</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>78</v>
@@ -17429,16 +17429,16 @@
         <v>79</v>
       </c>
       <c r="F130" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I130" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J130" t="s" s="2">
         <v>415</v>
@@ -17504,13 +17504,13 @@
         <v>79</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>78</v>
@@ -17522,7 +17522,7 @@
         <v>418</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>78</v>
@@ -17544,7 +17544,7 @@
         <v>79</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>78</v>
@@ -17556,7 +17556,7 @@
         <v>78</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K131" t="s" s="2">
         <v>421</v>
@@ -17593,7 +17593,7 @@
         <v>78</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X131" t="s" s="2">
         <v>425</v>
@@ -17623,13 +17623,13 @@
         <v>79</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI131" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ131" t="s" s="2">
         <v>78</v>
@@ -17641,7 +17641,7 @@
         <v>428</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>429</v>
@@ -17663,7 +17663,7 @@
         <v>79</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>78</v>
@@ -17675,7 +17675,7 @@
         <v>78</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K132" t="s" s="2">
         <v>432</v>
@@ -17710,7 +17710,7 @@
         <v>78</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X132" t="s" s="2">
         <v>435</v>
@@ -17740,13 +17740,13 @@
         <v>79</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>78</v>
@@ -17780,7 +17780,7 @@
         <v>79</v>
       </c>
       <c r="F133" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G133" t="s" s="2">
         <v>78</v>
@@ -17792,7 +17792,7 @@
         <v>78</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>442</v>
@@ -17829,7 +17829,7 @@
         <v>78</v>
       </c>
       <c r="W133" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X133" t="s" s="2">
         <v>443</v>
@@ -17859,13 +17859,13 @@
         <v>79</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>78</v>
@@ -17911,7 +17911,7 @@
         <v>78</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>451</v>
@@ -17948,7 +17948,7 @@
         <v>78</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X134" t="s" s="2">
         <v>455</v>
@@ -17984,7 +17984,7 @@
         <v>78</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>78</v>
@@ -18018,19 +18018,19 @@
         <v>79</v>
       </c>
       <c r="F135" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I135" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J135" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K135" t="s" s="2">
         <v>460</v>
@@ -18097,13 +18097,13 @@
         <v>79</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>464</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>78</v>
@@ -18137,7 +18137,7 @@
         <v>79</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>78</v>
@@ -18149,7 +18149,7 @@
         <v>78</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>469</v>
@@ -18214,13 +18214,13 @@
         <v>79</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ136" t="s" s="2">
         <v>78</v>
@@ -18254,16 +18254,16 @@
         <v>79</v>
       </c>
       <c r="F137" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I137" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H137" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I137" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J137" t="s" s="2">
         <v>474</v>
@@ -18333,13 +18333,13 @@
         <v>79</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>464</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>78</v>
@@ -18456,7 +18456,7 @@
         <v>78</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>78</v>
@@ -18490,7 +18490,7 @@
         <v>79</v>
       </c>
       <c r="F139" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G139" t="s" s="2">
         <v>78</v>
@@ -18502,7 +18502,7 @@
         <v>78</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K139" t="s" s="2">
         <v>238</v>
@@ -18565,7 +18565,7 @@
         <v>79</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>78</v>
@@ -18598,7 +18598,7 @@
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -18617,16 +18617,16 @@
         <v>78</v>
       </c>
       <c r="J140" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K140" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K140" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L140" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
@@ -18688,7 +18688,7 @@
         <v>78</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>78</v>
@@ -18728,13 +18728,13 @@
         <v>78</v>
       </c>
       <c r="H141" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>247</v>
@@ -18743,7 +18743,7 @@
         <v>248</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N141" t="s" s="2">
         <v>249</v>
@@ -18807,13 +18807,13 @@
         <v>78</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>78</v>
@@ -18838,10 +18838,10 @@
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F142" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>78</v>
@@ -18853,7 +18853,7 @@
         <v>78</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>491</v>
@@ -18913,16 +18913,16 @@
         <v>490</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>78</v>
@@ -18953,10 +18953,10 @@
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>78</v>
@@ -19032,16 +19032,16 @@
         <v>494</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>78</v>
@@ -19074,10 +19074,10 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>78</v>
@@ -19174,7 +19174,7 @@
         <v>408</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>409</v>
@@ -19196,7 +19196,7 @@
         <v>79</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>78</v>
@@ -19208,7 +19208,7 @@
         <v>78</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K145" t="s" s="2">
         <v>238</v>
@@ -19271,7 +19271,7 @@
         <v>79</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>78</v>
@@ -19304,7 +19304,7 @@
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -19323,16 +19323,16 @@
         <v>78</v>
       </c>
       <c r="J146" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K146" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K146" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L146" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" t="s" s="2">
@@ -19394,7 +19394,7 @@
         <v>78</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>78</v>
@@ -19434,13 +19434,13 @@
         <v>78</v>
       </c>
       <c r="H147" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I147" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K147" t="s" s="2">
         <v>247</v>
@@ -19449,7 +19449,7 @@
         <v>248</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N147" t="s" s="2">
         <v>249</v>
@@ -19513,13 +19513,13 @@
         <v>78</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL147" t="s" s="2">
         <v>78</v>
@@ -19544,19 +19544,19 @@
       </c>
       <c r="D148" s="2"/>
       <c r="E148" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F148" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I148" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F148" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J148" t="s" s="2">
         <v>503</v>
@@ -19622,13 +19622,13 @@
         <v>79</v>
       </c>
       <c r="AG148" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH148" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>78</v>
@@ -19640,7 +19640,7 @@
         <v>418</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>78</v>
@@ -19659,10 +19659,10 @@
       </c>
       <c r="D149" s="2"/>
       <c r="E149" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F149" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>78</v>
@@ -19674,7 +19674,7 @@
         <v>78</v>
       </c>
       <c r="J149" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>421</v>
@@ -19711,7 +19711,7 @@
         <v>78</v>
       </c>
       <c r="W149" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X149" t="s" s="2">
         <v>425</v>
@@ -19741,13 +19741,13 @@
         <v>79</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>78</v>
@@ -19759,7 +19759,7 @@
         <v>428</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>429</v>
@@ -19781,7 +19781,7 @@
         <v>79</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>78</v>
@@ -19793,7 +19793,7 @@
         <v>78</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>432</v>
@@ -19828,7 +19828,7 @@
         <v>78</v>
       </c>
       <c r="W150" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X150" t="s" s="2">
         <v>435</v>
@@ -19858,13 +19858,13 @@
         <v>79</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>78</v>
@@ -19898,7 +19898,7 @@
         <v>79</v>
       </c>
       <c r="F151" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G151" t="s" s="2">
         <v>78</v>
@@ -19910,7 +19910,7 @@
         <v>78</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K151" t="s" s="2">
         <v>442</v>
@@ -19947,7 +19947,7 @@
         <v>78</v>
       </c>
       <c r="W151" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X151" t="s" s="2">
         <v>443</v>
@@ -19977,13 +19977,13 @@
         <v>79</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>78</v>
@@ -20029,7 +20029,7 @@
         <v>78</v>
       </c>
       <c r="J152" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K152" t="s" s="2">
         <v>451</v>
@@ -20066,7 +20066,7 @@
         <v>78</v>
       </c>
       <c r="W152" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X152" t="s" s="2">
         <v>455</v>
@@ -20102,7 +20102,7 @@
         <v>78</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>78</v>
@@ -20136,19 +20136,19 @@
         <v>79</v>
       </c>
       <c r="F153" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G153" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H153" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I153" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H153" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I153" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J153" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K153" t="s" s="2">
         <v>460</v>
@@ -20215,13 +20215,13 @@
         <v>79</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>464</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>78</v>
@@ -20255,7 +20255,7 @@
         <v>79</v>
       </c>
       <c r="F154" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>78</v>
@@ -20267,7 +20267,7 @@
         <v>78</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K154" t="s" s="2">
         <v>469</v>
@@ -20332,13 +20332,13 @@
         <v>79</v>
       </c>
       <c r="AG154" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH154" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>78</v>
@@ -20372,16 +20372,16 @@
         <v>79</v>
       </c>
       <c r="F155" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G155" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H155" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I155" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H155" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I155" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J155" t="s" s="2">
         <v>474</v>
@@ -20451,13 +20451,13 @@
         <v>79</v>
       </c>
       <c r="AG155" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH155" t="s" s="2">
         <v>464</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>78</v>
@@ -20574,7 +20574,7 @@
         <v>78</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>78</v>
@@ -20608,7 +20608,7 @@
         <v>79</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>78</v>
@@ -20620,7 +20620,7 @@
         <v>78</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K157" t="s" s="2">
         <v>238</v>
@@ -20683,7 +20683,7 @@
         <v>79</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>78</v>
@@ -20716,7 +20716,7 @@
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
@@ -20735,16 +20735,16 @@
         <v>78</v>
       </c>
       <c r="J158" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K158" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K158" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L158" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N158" s="2"/>
       <c r="O158" t="s" s="2">
@@ -20806,7 +20806,7 @@
         <v>78</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>78</v>
@@ -20846,13 +20846,13 @@
         <v>78</v>
       </c>
       <c r="H159" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I159" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K159" t="s" s="2">
         <v>247</v>
@@ -20861,7 +20861,7 @@
         <v>248</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N159" t="s" s="2">
         <v>249</v>
@@ -20925,13 +20925,13 @@
         <v>78</v>
       </c>
       <c r="AI159" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ159" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL159" t="s" s="2">
         <v>78</v>
@@ -20956,10 +20956,10 @@
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F160" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>78</v>
@@ -20971,7 +20971,7 @@
         <v>78</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K160" t="s" s="2">
         <v>491</v>
@@ -21031,16 +21031,16 @@
         <v>490</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG160" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH160" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>78</v>
@@ -21071,10 +21071,10 @@
       </c>
       <c r="D161" s="2"/>
       <c r="E161" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F161" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G161" t="s" s="2">
         <v>78</v>
@@ -21150,16 +21150,16 @@
         <v>494</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG161" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH161" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>78</v>
@@ -21192,7 +21192,7 @@
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F162" t="s" s="2">
         <v>80</v>
@@ -21280,7 +21280,7 @@
         <v>78</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>78</v>
@@ -21292,7 +21292,7 @@
         <v>408</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>409</v>
@@ -21314,7 +21314,7 @@
         <v>79</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>78</v>
@@ -21326,7 +21326,7 @@
         <v>78</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K163" t="s" s="2">
         <v>238</v>
@@ -21389,7 +21389,7 @@
         <v>79</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>78</v>
@@ -21422,7 +21422,7 @@
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" t="s" s="2">
@@ -21441,16 +21441,16 @@
         <v>78</v>
       </c>
       <c r="J164" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K164" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K164" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L164" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
@@ -21512,7 +21512,7 @@
         <v>78</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>78</v>
@@ -21552,13 +21552,13 @@
         <v>78</v>
       </c>
       <c r="H165" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I165" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K165" t="s" s="2">
         <v>247</v>
@@ -21567,7 +21567,7 @@
         <v>248</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N165" t="s" s="2">
         <v>249</v>
@@ -21631,13 +21631,13 @@
         <v>78</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL165" t="s" s="2">
         <v>78</v>
@@ -21662,19 +21662,19 @@
       </c>
       <c r="D166" s="2"/>
       <c r="E166" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F166" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G166" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="H166" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I166" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G166" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H166" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I166" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J166" t="s" s="2">
         <v>415</v>
@@ -21740,13 +21740,13 @@
         <v>79</v>
       </c>
       <c r="AG166" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH166" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>78</v>
@@ -21758,7 +21758,7 @@
         <v>418</v>
       </c>
       <c r="AM166" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN166" t="s" s="2">
         <v>78</v>
@@ -21777,10 +21777,10 @@
       </c>
       <c r="D167" s="2"/>
       <c r="E167" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F167" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G167" t="s" s="2">
         <v>78</v>
@@ -21792,7 +21792,7 @@
         <v>78</v>
       </c>
       <c r="J167" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K167" t="s" s="2">
         <v>421</v>
@@ -21829,7 +21829,7 @@
         <v>78</v>
       </c>
       <c r="W167" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X167" t="s" s="2">
         <v>425</v>
@@ -21859,13 +21859,13 @@
         <v>79</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>78</v>
@@ -21877,7 +21877,7 @@
         <v>428</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>429</v>
@@ -21899,7 +21899,7 @@
         <v>79</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>78</v>
@@ -21911,7 +21911,7 @@
         <v>78</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K168" t="s" s="2">
         <v>432</v>
@@ -21946,7 +21946,7 @@
         <v>78</v>
       </c>
       <c r="W168" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X168" t="s" s="2">
         <v>435</v>
@@ -21976,13 +21976,13 @@
         <v>79</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>78</v>
@@ -22016,7 +22016,7 @@
         <v>79</v>
       </c>
       <c r="F169" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G169" t="s" s="2">
         <v>78</v>
@@ -22028,7 +22028,7 @@
         <v>78</v>
       </c>
       <c r="J169" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K169" t="s" s="2">
         <v>442</v>
@@ -22065,7 +22065,7 @@
         <v>78</v>
       </c>
       <c r="W169" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X169" t="s" s="2">
         <v>443</v>
@@ -22095,13 +22095,13 @@
         <v>79</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>78</v>
@@ -22147,7 +22147,7 @@
         <v>78</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K170" t="s" s="2">
         <v>451</v>
@@ -22184,7 +22184,7 @@
         <v>78</v>
       </c>
       <c r="W170" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X170" t="s" s="2">
         <v>455</v>
@@ -22220,7 +22220,7 @@
         <v>78</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>78</v>
@@ -22254,19 +22254,19 @@
         <v>79</v>
       </c>
       <c r="F171" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H171" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I171" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H171" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I171" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J171" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K171" t="s" s="2">
         <v>460</v>
@@ -22333,13 +22333,13 @@
         <v>79</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>464</v>
       </c>
       <c r="AI171" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ171" t="s" s="2">
         <v>78</v>
@@ -22373,7 +22373,7 @@
         <v>79</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>78</v>
@@ -22385,7 +22385,7 @@
         <v>78</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K172" t="s" s="2">
         <v>469</v>
@@ -22450,13 +22450,13 @@
         <v>79</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH172" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>78</v>
@@ -22490,16 +22490,16 @@
         <v>79</v>
       </c>
       <c r="F173" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H173" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I173" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G173" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H173" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I173" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J173" t="s" s="2">
         <v>474</v>
@@ -22569,13 +22569,13 @@
         <v>79</v>
       </c>
       <c r="AG173" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH173" t="s" s="2">
         <v>464</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>78</v>
@@ -22692,7 +22692,7 @@
         <v>78</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>78</v>
@@ -22726,7 +22726,7 @@
         <v>79</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>78</v>
@@ -22738,7 +22738,7 @@
         <v>78</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K175" t="s" s="2">
         <v>238</v>
@@ -22801,7 +22801,7 @@
         <v>79</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>78</v>
@@ -22834,7 +22834,7 @@
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
@@ -22853,16 +22853,16 @@
         <v>78</v>
       </c>
       <c r="J176" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K176" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K176" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L176" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
@@ -22924,7 +22924,7 @@
         <v>78</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ176" t="s" s="2">
         <v>78</v>
@@ -22964,13 +22964,13 @@
         <v>78</v>
       </c>
       <c r="H177" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I177" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K177" t="s" s="2">
         <v>247</v>
@@ -22979,7 +22979,7 @@
         <v>248</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N177" t="s" s="2">
         <v>249</v>
@@ -23043,13 +23043,13 @@
         <v>78</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL177" t="s" s="2">
         <v>78</v>
@@ -23074,10 +23074,10 @@
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F178" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>78</v>
@@ -23089,7 +23089,7 @@
         <v>78</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K178" t="s" s="2">
         <v>491</v>
@@ -23149,16 +23149,16 @@
         <v>490</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>78</v>
@@ -23189,10 +23189,10 @@
       </c>
       <c r="D179" s="2"/>
       <c r="E179" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F179" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G179" t="s" s="2">
         <v>78</v>
@@ -23268,16 +23268,16 @@
         <v>494</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG179" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH179" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>78</v>
@@ -23313,7 +23313,7 @@
         <v>79</v>
       </c>
       <c r="F180" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G180" t="s" s="2">
         <v>78</v>
@@ -23410,7 +23410,7 @@
         <v>408</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN180" t="s" s="2">
         <v>409</v>
@@ -23432,7 +23432,7 @@
         <v>79</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>78</v>
@@ -23444,7 +23444,7 @@
         <v>78</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K181" t="s" s="2">
         <v>238</v>
@@ -23507,7 +23507,7 @@
         <v>79</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>78</v>
@@ -23540,7 +23540,7 @@
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" t="s" s="2">
@@ -23559,16 +23559,16 @@
         <v>78</v>
       </c>
       <c r="J182" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K182" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K182" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L182" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" t="s" s="2">
@@ -23630,7 +23630,7 @@
         <v>78</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>78</v>
@@ -23670,13 +23670,13 @@
         <v>78</v>
       </c>
       <c r="H183" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I183" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K183" t="s" s="2">
         <v>247</v>
@@ -23685,7 +23685,7 @@
         <v>248</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N183" t="s" s="2">
         <v>249</v>
@@ -23749,13 +23749,13 @@
         <v>78</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL183" t="s" s="2">
         <v>78</v>
@@ -23780,19 +23780,19 @@
       </c>
       <c r="D184" s="2"/>
       <c r="E184" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F184" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H184" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I184" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F184" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G184" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H184" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I184" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J184" t="s" s="2">
         <v>415</v>
@@ -23858,13 +23858,13 @@
         <v>79</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH184" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>78</v>
@@ -23876,7 +23876,7 @@
         <v>418</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>78</v>
@@ -23898,7 +23898,7 @@
         <v>79</v>
       </c>
       <c r="F185" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G185" t="s" s="2">
         <v>78</v>
@@ -23910,7 +23910,7 @@
         <v>78</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K185" t="s" s="2">
         <v>238</v>
@@ -23973,7 +23973,7 @@
         <v>79</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>78</v>
@@ -24006,7 +24006,7 @@
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" t="s" s="2">
@@ -24025,16 +24025,16 @@
         <v>78</v>
       </c>
       <c r="J186" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K186" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K186" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L186" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
@@ -24096,7 +24096,7 @@
         <v>78</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ186" t="s" s="2">
         <v>78</v>
@@ -24130,19 +24130,19 @@
         <v>79</v>
       </c>
       <c r="F187" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I187" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G187" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H187" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I187" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J187" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K187" t="s" s="2">
         <v>514</v>
@@ -24207,19 +24207,19 @@
         <v>79</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>518</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>78</v>
@@ -24247,19 +24247,19 @@
         <v>79</v>
       </c>
       <c r="F188" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H188" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I188" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G188" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H188" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I188" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J188" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K188" t="s" s="2">
         <v>520</v>
@@ -24294,7 +24294,7 @@
         <v>78</v>
       </c>
       <c r="W188" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X188" t="s" s="2">
         <v>523</v>
@@ -24324,19 +24324,19 @@
         <v>79</v>
       </c>
       <c r="AG188" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH188" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK188" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL188" t="s" s="2">
         <v>78</v>
@@ -24361,19 +24361,19 @@
       </c>
       <c r="D189" s="2"/>
       <c r="E189" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F189" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H189" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I189" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F189" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G189" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H189" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I189" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J189" t="s" s="2">
         <v>527</v>
@@ -24441,13 +24441,13 @@
         <v>79</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>78</v>
@@ -24481,7 +24481,7 @@
         <v>79</v>
       </c>
       <c r="F190" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>78</v>
@@ -24493,7 +24493,7 @@
         <v>78</v>
       </c>
       <c r="J190" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K190" t="s" s="2">
         <v>238</v>
@@ -24556,7 +24556,7 @@
         <v>79</v>
       </c>
       <c r="AG190" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH190" t="s" s="2">
         <v>78</v>
@@ -24589,7 +24589,7 @@
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -24608,16 +24608,16 @@
         <v>78</v>
       </c>
       <c r="J191" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K191" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K191" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L191" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" t="s" s="2">
@@ -24679,7 +24679,7 @@
         <v>78</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ191" t="s" s="2">
         <v>78</v>
@@ -24713,19 +24713,19 @@
         <v>79</v>
       </c>
       <c r="F192" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G192" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H192" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G192" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H192" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I192" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K192" t="s" s="2">
         <v>536</v>
@@ -24762,7 +24762,7 @@
         <v>78</v>
       </c>
       <c r="W192" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="X192" t="s" s="2">
         <v>540</v>
@@ -24792,13 +24792,13 @@
         <v>79</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ192" t="s" s="2">
         <v>78</v>
@@ -24832,16 +24832,16 @@
         <v>79</v>
       </c>
       <c r="F193" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H193" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I193" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G193" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H193" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I193" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J193" t="s" s="2">
         <v>208</v>
@@ -24881,7 +24881,7 @@
         <v>78</v>
       </c>
       <c r="W193" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X193" t="s" s="2">
         <v>549</v>
@@ -24911,13 +24911,13 @@
         <v>79</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>78</v>
@@ -24951,19 +24951,19 @@
         <v>79</v>
       </c>
       <c r="F194" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H194" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I194" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G194" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H194" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I194" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J194" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K194" t="s" s="2">
         <v>553</v>
@@ -25030,13 +25030,13 @@
         <v>79</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ194" t="s" s="2">
         <v>78</v>
@@ -25067,22 +25067,22 @@
       </c>
       <c r="D195" s="2"/>
       <c r="E195" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F195" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H195" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I195" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F195" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G195" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H195" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I195" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J195" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K195" t="s" s="2">
         <v>561</v>
@@ -25147,13 +25147,13 @@
         <v>79</v>
       </c>
       <c r="AG195" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH195" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI195" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ195" t="s" s="2">
         <v>78</v>
@@ -25187,19 +25187,19 @@
         <v>79</v>
       </c>
       <c r="F196" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G196" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H196" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I196" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G196" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H196" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I196" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J196" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K196" t="s" s="2">
         <v>568</v>
@@ -25262,13 +25262,13 @@
         <v>79</v>
       </c>
       <c r="AG196" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH196" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI196" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ196" t="s" s="2">
         <v>78</v>
@@ -25302,16 +25302,16 @@
         <v>79</v>
       </c>
       <c r="F197" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H197" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I197" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G197" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H197" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I197" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J197" t="s" s="2">
         <v>573</v>
@@ -25379,13 +25379,13 @@
         <v>79</v>
       </c>
       <c r="AG197" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH197" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ197" t="s" s="2">
         <v>78</v>
@@ -25419,19 +25419,19 @@
         <v>79</v>
       </c>
       <c r="F198" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H198" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I198" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G198" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H198" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I198" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J198" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K198" t="s" s="2">
         <v>580</v>
@@ -25496,19 +25496,19 @@
         <v>79</v>
       </c>
       <c r="AG198" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH198" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ198" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK198" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL198" t="s" s="2">
         <v>78</v>
@@ -25533,10 +25533,10 @@
       </c>
       <c r="D199" s="2"/>
       <c r="E199" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F199" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G199" t="s" s="2">
         <v>78</v>
@@ -25548,7 +25548,7 @@
         <v>78</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K199" t="s" s="2">
         <v>421</v>
@@ -25585,7 +25585,7 @@
         <v>78</v>
       </c>
       <c r="W199" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X199" t="s" s="2">
         <v>425</v>
@@ -25615,13 +25615,13 @@
         <v>79</v>
       </c>
       <c r="AG199" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH199" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ199" t="s" s="2">
         <v>78</v>
@@ -25633,7 +25633,7 @@
         <v>428</v>
       </c>
       <c r="AM199" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AN199" t="s" s="2">
         <v>429</v>
@@ -25655,7 +25655,7 @@
         <v>79</v>
       </c>
       <c r="F200" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G200" t="s" s="2">
         <v>78</v>
@@ -25667,7 +25667,7 @@
         <v>78</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K200" t="s" s="2">
         <v>432</v>
@@ -25702,7 +25702,7 @@
         <v>78</v>
       </c>
       <c r="W200" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X200" t="s" s="2">
         <v>435</v>
@@ -25732,13 +25732,13 @@
         <v>79</v>
       </c>
       <c r="AG200" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH200" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ200" t="s" s="2">
         <v>78</v>
@@ -25772,7 +25772,7 @@
         <v>79</v>
       </c>
       <c r="F201" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G201" t="s" s="2">
         <v>78</v>
@@ -25784,7 +25784,7 @@
         <v>78</v>
       </c>
       <c r="J201" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K201" t="s" s="2">
         <v>442</v>
@@ -25821,7 +25821,7 @@
         <v>78</v>
       </c>
       <c r="W201" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X201" t="s" s="2">
         <v>443</v>
@@ -25851,13 +25851,13 @@
         <v>79</v>
       </c>
       <c r="AG201" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH201" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI201" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ201" t="s" s="2">
         <v>78</v>
@@ -25903,7 +25903,7 @@
         <v>78</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K202" t="s" s="2">
         <v>451</v>
@@ -25940,7 +25940,7 @@
         <v>78</v>
       </c>
       <c r="W202" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="X202" t="s" s="2">
         <v>455</v>
@@ -25976,7 +25976,7 @@
         <v>78</v>
       </c>
       <c r="AI202" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ202" t="s" s="2">
         <v>78</v>
@@ -26010,19 +26010,19 @@
         <v>79</v>
       </c>
       <c r="F203" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H203" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I203" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G203" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H203" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I203" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J203" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K203" t="s" s="2">
         <v>460</v>
@@ -26089,13 +26089,13 @@
         <v>79</v>
       </c>
       <c r="AG203" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH203" t="s" s="2">
         <v>464</v>
       </c>
       <c r="AI203" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ203" t="s" s="2">
         <v>78</v>
@@ -26129,7 +26129,7 @@
         <v>79</v>
       </c>
       <c r="F204" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G204" t="s" s="2">
         <v>78</v>
@@ -26141,7 +26141,7 @@
         <v>78</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K204" t="s" s="2">
         <v>469</v>
@@ -26206,13 +26206,13 @@
         <v>79</v>
       </c>
       <c r="AG204" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH204" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI204" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ204" t="s" s="2">
         <v>78</v>
@@ -26246,16 +26246,16 @@
         <v>79</v>
       </c>
       <c r="F205" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H205" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I205" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G205" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H205" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I205" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J205" t="s" s="2">
         <v>474</v>
@@ -26325,13 +26325,13 @@
         <v>79</v>
       </c>
       <c r="AG205" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH205" t="s" s="2">
         <v>464</v>
       </c>
       <c r="AI205" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ205" t="s" s="2">
         <v>78</v>
@@ -26448,7 +26448,7 @@
         <v>78</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ206" t="s" s="2">
         <v>78</v>
@@ -26482,7 +26482,7 @@
         <v>79</v>
       </c>
       <c r="F207" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G207" t="s" s="2">
         <v>78</v>
@@ -26494,7 +26494,7 @@
         <v>78</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K207" t="s" s="2">
         <v>238</v>
@@ -26557,7 +26557,7 @@
         <v>79</v>
       </c>
       <c r="AG207" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH207" t="s" s="2">
         <v>78</v>
@@ -26590,7 +26590,7 @@
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26609,16 +26609,16 @@
         <v>78</v>
       </c>
       <c r="J208" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K208" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K208" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L208" t="s" s="2">
         <v>243</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" t="s" s="2">
@@ -26680,7 +26680,7 @@
         <v>78</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>78</v>
@@ -26720,13 +26720,13 @@
         <v>78</v>
       </c>
       <c r="H209" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I209" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K209" t="s" s="2">
         <v>247</v>
@@ -26735,7 +26735,7 @@
         <v>248</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N209" t="s" s="2">
         <v>249</v>
@@ -26799,13 +26799,13 @@
         <v>78</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ209" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL209" t="s" s="2">
         <v>78</v>
@@ -26830,10 +26830,10 @@
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F210" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G210" t="s" s="2">
         <v>78</v>
@@ -26845,7 +26845,7 @@
         <v>78</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>91</v>
+        <v>202</v>
       </c>
       <c r="K210" t="s" s="2">
         <v>491</v>
@@ -26905,16 +26905,16 @@
         <v>490</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI210" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ210" t="s" s="2">
         <v>78</v>
@@ -26945,10 +26945,10 @@
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F211" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G211" t="s" s="2">
         <v>78</v>
@@ -27024,16 +27024,16 @@
         <v>494</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI211" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ211" t="s" s="2">
         <v>78</v>
